--- a/TestCases(FinalProject).xlsx
+++ b/TestCases(FinalProject).xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="2" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="1" r:id="rId2"/>
     <sheet name="Bug Reports" sheetId="3" r:id="rId3"/>
+    <sheet name="Improvements" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -72,9 +73,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>TC - 001</t>
   </si>
   <si>
     <t>1. Chrome used
@@ -110,9 +108,6 @@
 Permanent Address: Beogradska 20" has appeared</t>
   </si>
   <si>
-    <t>TC - 002</t>
-  </si>
-  <si>
     <t>1. Click on Elements section
 2. Click Check Box item on the left navigation
 3. Click Home check box</t>
@@ -121,18 +116,12 @@
     <t>Message "You have selected : home desktop notes commands documents workspace react angular veu office public private classified general downloads wordFile excelFile" should appear</t>
   </si>
   <si>
-    <t>TC - 003</t>
-  </si>
-  <si>
     <t>1. Click on Elements section
 2. Click Radio Button item on the left navigation
 3. Click Yes</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>TC - 004</t>
   </si>
   <si>
     <t>1. First Name input: Petar
@@ -149,9 +138,6 @@
     <t>Added entity appeared in the table</t>
   </si>
   <si>
-    <t>TC - 005</t>
-  </si>
-  <si>
     <t>In order to check if the Web Tables functionality can add new row, the user must click on edit button (next to delete button), and change certain data</t>
   </si>
   <si>
@@ -166,12 +152,6 @@
     <t>Edited entity appeared in the table</t>
   </si>
   <si>
-    <t>TC - 006</t>
-  </si>
-  <si>
-    <t>TC - 007</t>
-  </si>
-  <si>
     <t>In order to check if the Web Tables functionality can delete row, the user must click on delete button</t>
   </si>
   <si>
@@ -186,16 +166,10 @@
     <t>Entity dissapeared from the table</t>
   </si>
   <si>
-    <t>TC - 008</t>
-  </si>
-  <si>
     <t>Message "You have done a dynamic click" should appear</t>
   </si>
   <si>
     <t>Message "You have done a dynamic click" appeared</t>
-  </si>
-  <si>
-    <t>TC - 009</t>
   </si>
   <si>
     <t>Message "You have done a right click" should appear</t>
@@ -328,15 +302,6 @@
     <t>Message "You have selected Impressive" appeared and only one option can be selected.</t>
   </si>
   <si>
-    <t>TC - 0010</t>
-  </si>
-  <si>
-    <t>TC - 0011</t>
-  </si>
-  <si>
-    <t>TC - 012</t>
-  </si>
-  <si>
     <t>Verify if the Practice Form functionality in Forms section works when the user deletes last subject</t>
   </si>
   <si>
@@ -352,9 +317,6 @@
     <t>Website crushes and white screen appears</t>
   </si>
   <si>
-    <t>TC - 013</t>
-  </si>
-  <si>
     <t>Verify if the Browser Windows functionality in Alerts, Frame &amp; Windows section works when the user clicks on New Tab</t>
   </si>
   <si>
@@ -362,9 +324,6 @@
   </si>
   <si>
     <t>Verify if the Browser Windows functionality in Alerts, Frame &amp; Windows section works when the user clicks on New Window Message</t>
-  </si>
-  <si>
-    <t>TC - 014</t>
   </si>
   <si>
     <t>Verify if the Alerts functionality in Alerts, Frame &amp; Windows section works when the user clicks on open alert button</t>
@@ -419,18 +378,6 @@
 2. Click Practice Form item on the left navigation
 3. Enter Subject
 4. Click "x" on subject</t>
-  </si>
-  <si>
-    <t>TC - 017</t>
-  </si>
-  <si>
-    <t>TC - 018</t>
-  </si>
-  <si>
-    <t>TC - 019</t>
-  </si>
-  <si>
-    <t>TC - 020</t>
   </si>
   <si>
     <t>1. Click on  Alerts, Frame &amp; Windows section
@@ -499,9 +446,6 @@
     <t>New Tab opened and text "This is a sample page" appeared in that Tab</t>
   </si>
   <si>
-    <t>TC - 015</t>
-  </si>
-  <si>
     <t>In order to check if the Browser Windows functionality in Alerts, Frame &amp; Windows section works, the user must click on "New Window" button</t>
   </si>
   <si>
@@ -517,9 +461,6 @@
     <t>New Window opened and text "This is a sample page" appeared in that Window</t>
   </si>
   <si>
-    <t>TC - 016</t>
-  </si>
-  <si>
     <t>In order to check if the Browser Windows functionality in Alerts, Frame &amp; Windows section works, the user must click on "New Window Message" button</t>
   </si>
   <si>
@@ -548,12 +489,6 @@
   </si>
   <si>
     <t>Verify if the Modal Dialogs functionality in Alerts, Frame &amp; Windows section works when the user clicks Large Modal button</t>
-  </si>
-  <si>
-    <t>TC - 021</t>
-  </si>
-  <si>
-    <t>TC - 022</t>
   </si>
   <si>
     <t>In order to check if the Modal Dialogs functionality in Alerts, Frame &amp; Windows section works, the user must click on "Small Modal" button</t>
@@ -660,6 +595,99 @@
   </si>
   <si>
     <t>BUG - 03</t>
+  </si>
+  <si>
+    <t>New Window Message in Browser Windows functionality in Alerts, Frame &amp; Windows section doesn't work properly with automation</t>
+  </si>
+  <si>
+    <t>WebDriver can not switch to New Window and can not find element that contains text in New Window Message</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Elements Section</t>
+  </si>
+  <si>
+    <t>ES - 001</t>
+  </si>
+  <si>
+    <t>ES - 002</t>
+  </si>
+  <si>
+    <t>ES - 003</t>
+  </si>
+  <si>
+    <t>ES - 004</t>
+  </si>
+  <si>
+    <t>ES - 005</t>
+  </si>
+  <si>
+    <t>ES - 006</t>
+  </si>
+  <si>
+    <t>ES - 007</t>
+  </si>
+  <si>
+    <t>ES - 008</t>
+  </si>
+  <si>
+    <t>ES - 009</t>
+  </si>
+  <si>
+    <t>ES - 010</t>
+  </si>
+  <si>
+    <t>ES - 011</t>
+  </si>
+  <si>
+    <t>Forms Section</t>
+  </si>
+  <si>
+    <t>Alerts, Frame &amp; Windows Section</t>
+  </si>
+  <si>
+    <t>FS - 001</t>
+  </si>
+  <si>
+    <t>FS - 002</t>
+  </si>
+  <si>
+    <t>AC - 001</t>
+  </si>
+  <si>
+    <t>AC - 002</t>
+  </si>
+  <si>
+    <t>AC - 003</t>
+  </si>
+  <si>
+    <t>AC - 004</t>
+  </si>
+  <si>
+    <t>AC - 005</t>
+  </si>
+  <si>
+    <t>AC - 006</t>
+  </si>
+  <si>
+    <t>AC - 007</t>
+  </si>
+  <si>
+    <t>AC - 008</t>
+  </si>
+  <si>
+    <t>AC - 009</t>
+  </si>
+  <si>
+    <t>Improvements</t>
+  </si>
+  <si>
+    <t>I think that New Window Message in Browser Windows functionality should be changed to Alert, Modal or something similar, so it can be handled easily for automation.</t>
+  </si>
+  <si>
+    <t>My suggestion would be to change Sticky Footer to Normal Footer, or just to set Footer to be below Body element when we scrool all the way down.</t>
   </si>
 </sst>
 </file>
@@ -683,7 +711,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,8 +736,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -732,11 +766,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -752,7 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,6 +949,92 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,15 +1096,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>54936</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1664661</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -847,7 +1121,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333376" y="10372725"/>
+          <a:off x="152401" y="10344150"/>
           <a:ext cx="7065335" cy="4219575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -860,15 +1134,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>388754</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>408911</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -885,8 +1159,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7858126" y="10639425"/>
-          <a:ext cx="5789428" cy="3457575"/>
+          <a:off x="7410450" y="10344150"/>
+          <a:ext cx="6714461" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>920160</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="17402175"/>
+          <a:ext cx="7416210" cy="4429125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1161,242 +1473,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A2:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1407,9 +1837,9 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,695 +1859,711 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="10"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="10"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="10"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="10"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="10"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="10"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="10"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="10"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="10"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="10"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="10"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="10"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="I40" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="4" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2131,8 +2577,8 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,8 +2589,8 @@
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
@@ -2152,171 +2598,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>167</v>
+      <c r="M1" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F59" s="3"/>
       <c r="G59" s="4" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="43"/>
+    </row>
+    <row r="2" spans="1:2" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestCases(FinalProject).xlsx
+++ b/TestCases(FinalProject).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="184">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -476,15 +476,6 @@
     <t xml:space="preserve">New Window opened and expected message appeared in that Window, but durning automation couldn't switch to that Window and find element </t>
   </si>
   <si>
-    <t>In Test Case (ID) TC - 012 we cannot verify functionality because the Submit button is not visible</t>
-  </si>
-  <si>
-    <t>In Test Case (ID) TC - 013 website crushes and white screen appears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Test Case (ID) TC - 016 durning automation couldn't switch to New Window and find element </t>
-  </si>
-  <si>
     <t>Verify if the Modal Dialogs functionality in Alerts, Frame &amp; Windows section works when the user clicks Small Modal button</t>
   </si>
   <si>
@@ -688,6 +679,12 @@
   </si>
   <si>
     <t>My suggestion would be to change Sticky Footer to Normal Footer, or just to set Footer to be below Body element when we scrool all the way down.</t>
+  </si>
+  <si>
+    <t>We cannot verify functionality because the Submit button is not visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durning automation couldn't switch to New Window and find element </t>
   </si>
 </sst>
 </file>
@@ -954,12 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,19 +984,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,24 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1475,9 +1472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,10 +1487,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -1507,11 +1504,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>157</v>
+      <c r="A2" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>43</v>
@@ -1522,9 +1519,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>59</v>
@@ -1535,22 +1532,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>66</v>
@@ -1561,22 +1558,22 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>44</v>
@@ -1587,9 +1584,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
@@ -1600,9 +1597,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>46</v>
@@ -1613,102 +1610,102 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="25" t="s">
+      <c r="B14" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="31" t="s">
+    <row r="17" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>78</v>
@@ -1719,22 +1716,22 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>80</v>
@@ -1745,9 +1742,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>81</v>
@@ -1758,9 +1755,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>82</v>
@@ -1771,9 +1768,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>83</v>
@@ -1784,12 +1781,12 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="4" t="s">
@@ -1797,12 +1794,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
@@ -1889,7 +1886,7 @@
     </row>
     <row r="2" spans="1:9" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>43</v>
@@ -1921,7 +1918,7 @@
     </row>
     <row r="4" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>59</v>
@@ -1951,7 +1948,7 @@
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>60</v>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="8" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>66</v>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="10" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
@@ -2041,7 +2038,7 @@
     </row>
     <row r="12" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>44</v>
@@ -2053,7 +2050,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
@@ -2073,7 +2070,7 @@
     </row>
     <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
@@ -2085,7 +2082,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>30</v>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="16" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>46</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>47</v>
@@ -2147,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="4" t="s">
@@ -2165,7 +2162,7 @@
     </row>
     <row r="20" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>48</v>
@@ -2177,7 +2174,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="4" t="s">
@@ -2195,7 +2192,7 @@
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>49</v>
@@ -2207,7 +2204,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="4" t="s">
@@ -2224,7 +2221,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="42"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -2233,7 +2230,7 @@
     </row>
     <row r="24" spans="1:9" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -2265,7 +2262,7 @@
     </row>
     <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>72</v>
@@ -2296,7 +2293,7 @@
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="42"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -2305,7 +2302,7 @@
     </row>
     <row r="28" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>77</v>
@@ -2335,7 +2332,7 @@
     </row>
     <row r="30" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>78</v>
@@ -2365,7 +2362,7 @@
     </row>
     <row r="32" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>79</v>
@@ -2395,7 +2392,7 @@
     </row>
     <row r="34" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>80</v>
@@ -2425,7 +2422,7 @@
     </row>
     <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>81</v>
@@ -2455,7 +2452,7 @@
     </row>
     <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>82</v>
@@ -2485,7 +2482,7 @@
     </row>
     <row r="40" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>83</v>
@@ -2514,26 +2511,26 @@
     </row>
     <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>25</v>
@@ -2541,26 +2538,26 @@
     </row>
     <row r="44" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>25</v>
@@ -2635,18 +2632,18 @@
         <v>15</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2664,30 +2661,30 @@
         <v>56</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>17</v>
@@ -2705,30 +2702,30 @@
         <v>76</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>17</v>
@@ -2744,19 +2741,19 @@
         <v>121</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="M59" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +2766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2780,7 +2777,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B1" s="43"/>
     </row>
@@ -2789,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases(FinalProject).xlsx
+++ b/TestCases(FinalProject).xlsx
@@ -1479,7 +1479,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="56.28515625" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
